--- a/DMSNewVSale_2025-12-07_19-41.xlsx
+++ b/DMSNewVSale_2025-12-07_19-41.xlsx
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>معجون سيجنال عرض 50ملل</t>
@@ -4859,7 +4865,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4869,51 +4875,84 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>300</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>76</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>12</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>138</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>270</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" ht="25.5" customHeight="1">
-      <c r="N108" s="13">
-        <v>7301.8924999999999</v>
-      </c>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>299</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>300</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c t="s" r="Q108" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" ht="26.25" customHeight="1">
+      <c r="N109" s="13">
+        <v>7321.8924999999999</v>
+      </c>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>301</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5427,10 +5466,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
